--- a/data/trans_orig/P36B01_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B01_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738714BD-08C8-4A23-85D4-62F96A0E859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{752DFA32-11AC-4172-8C72-8FF25F1CB740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7544C74C-4176-4D6B-B8F2-F580A5A4F6C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{223BA9C1-BEEE-4D8B-8C89-209658FC7703}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,328 +74,334 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>91,2%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
     <t>2,38%</t>
   </si>
   <si>
+    <t>5,84%</t>
+  </si>
+  <si>
     <t>Jaen</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,88%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>0,12%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -404,7 +410,7 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>95,47%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>98,32%</t>
@@ -413,19 +419,19 @@
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>2,85%</t>
@@ -434,25 +440,25 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -461,103 +467,109 @@
     <t>95,05%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>94,37%</t>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC8097A-646F-4437-8790-FF876CE9C599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697235CA-7E5B-4321-AAF8-0002D54AB996}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1314,7 +1326,7 @@
         <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>70770</v>
+        <v>70771</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1365,7 +1377,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>550624</v>
+        <v>550625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1442,7 +1454,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,13 +1469,13 @@
         <v>1058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1472,13 +1484,13 @@
         <v>3875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1487,13 +1499,13 @@
         <v>4934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1561,13 +1573,13 @@
         <v>316635</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>590</v>
@@ -1576,13 +1588,13 @@
         <v>419335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -1591,13 +1603,13 @@
         <v>735969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1624,13 @@
         <v>5605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1627,13 +1639,13 @@
         <v>9221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -1642,13 +1654,13 @@
         <v>14827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1716,13 +1728,13 @@
         <v>188413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
@@ -1731,13 +1743,13 @@
         <v>224267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
@@ -1746,13 +1758,13 @@
         <v>412680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1779,13 @@
         <v>8335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1782,13 +1794,13 @@
         <v>7229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -1797,13 +1809,13 @@
         <v>15564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1871,13 +1883,13 @@
         <v>275460</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -1886,13 +1898,13 @@
         <v>269993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>819</v>
@@ -1901,13 +1913,13 @@
         <v>545453</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1934,13 @@
         <v>1763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -1937,13 +1949,13 @@
         <v>5629</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1952,13 +1964,13 @@
         <v>7392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2038,13 @@
         <v>604027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>930</v>
@@ -2041,13 +2053,13 @@
         <v>784607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1505</v>
@@ -2056,13 +2068,13 @@
         <v>1388634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2089,13 @@
         <v>17692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2092,13 +2104,13 @@
         <v>19596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -2107,13 +2119,13 @@
         <v>37288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2181,13 +2193,13 @@
         <v>816881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
@@ -2196,13 +2208,13 @@
         <v>831710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>1722</v>
@@ -2211,13 +2223,13 @@
         <v>1648590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2244,13 @@
         <v>42547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -2247,13 +2259,13 @@
         <v>34769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -2262,13 +2274,13 @@
         <v>77317</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,16 +2345,16 @@
         <v>3185</v>
       </c>
       <c r="D28" s="7">
-        <v>3199803</v>
+        <v>3199804</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>5093</v>
@@ -2351,13 +2363,13 @@
         <v>3626488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>8278</v>
@@ -2366,13 +2378,13 @@
         <v>6826291</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2399,13 @@
         <v>168221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
@@ -2402,13 +2414,13 @@
         <v>173956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>443</v>
@@ -2417,13 +2429,13 @@
         <v>342177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2447,7 @@
         <v>3364</v>
       </c>
       <c r="D30" s="7">
-        <v>3368024</v>
+        <v>3368025</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2479,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
